--- a/excel_data/2020-11-29.xlsx
+++ b/excel_data/2020-11-29.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="155">
   <si>
     <t>Position</t>
   </si>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>12/11 20C</t>
-  </si>
-  <si>
-    <t>12/4 17c</t>
   </si>
   <si>
     <t>12/4 20c</t>
@@ -569,15 +566,15 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$A$131</c:f>
+              <c:f>Sheet1!$B$2:$A$130</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$131</c:f>
+              <c:f>Sheet1!$C$2:$C$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -720,229 +717,229 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="117">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="121">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>1</c:v>
@@ -963,9 +960,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="129">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1032,15 +1026,15 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$A$38</c:f>
+              <c:f>Sheet2!$B$2:$A$37</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$38</c:f>
+              <c:f>Sheet2!$C$3:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1144,9 +1138,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1554,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2077,102 +2068,104 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C53">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C57">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2180,7 +2173,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>113</v>
@@ -2191,29 +2184,29 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>113</v>
@@ -2224,7 +2217,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>113</v>
@@ -2235,7 +2228,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>113</v>
@@ -2246,7 +2239,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>113</v>
@@ -2257,7 +2250,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>113</v>
@@ -2268,7 +2261,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>113</v>
@@ -2279,7 +2272,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>113</v>
@@ -2290,7 +2283,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>113</v>
@@ -2301,7 +2294,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>113</v>
@@ -2312,41 +2305,41 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2354,7 +2347,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>113</v>
@@ -2365,7 +2358,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>113</v>
@@ -2376,61 +2369,61 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2438,7 +2431,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>113</v>
@@ -2449,102 +2442,102 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C90">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>113</v>
@@ -2555,118 +2548,118 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2674,10 +2667,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2685,7 +2678,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>113</v>
@@ -2696,7 +2689,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>113</v>
@@ -2707,38 +2700,38 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>113</v>
@@ -2749,7 +2742,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>113</v>
@@ -2760,7 +2753,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
@@ -2771,7 +2764,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -2782,104 +2775,104 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B117" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>113</v>
@@ -2890,7 +2883,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>113</v>
@@ -2901,10 +2894,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2912,30 +2905,30 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B129" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2943,47 +2936,35 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C131">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A127:A128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2992,7 +2973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3134,7 +3115,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>133</v>
       </c>
@@ -3144,7 +3127,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>134</v>
@@ -3155,10 +3138,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3166,10 +3149,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3177,7 +3160,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>136</v>
@@ -3188,7 +3171,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>137</v>
@@ -3198,9 +3181,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>138</v>
       </c>
@@ -3220,7 +3201,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3229,7 +3210,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3299,7 +3280,9 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>148</v>
       </c>
@@ -3309,7 +3292,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>149</v>
@@ -3320,7 +3303,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>150</v>
@@ -3331,7 +3314,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>151</v>
@@ -3342,7 +3325,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>152</v>
@@ -3353,7 +3336,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>153</v>
@@ -3364,23 +3347,12 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38">
         <v>1</v>
       </c>
     </row>
@@ -3388,8 +3360,8 @@
   <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A19:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
